--- a/Timesheet-evaluation-Felana-ETU1710.xlsx
+++ b/Timesheet-evaluation-Felana-ETU1710.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dossier Git\evaluation_saison_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dossier Git\Evaluation-Saison5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBB640E-6664-4365-960E-9DFE83450C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30DD9D9-6176-4A3E-A7D6-9CC40BD11CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{326CDC2B-B960-2746-B82E-7E70916B4721}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>Taches</t>
   </si>
@@ -105,9 +105,6 @@
     <t>integration</t>
   </si>
   <si>
-    <t>type data</t>
-  </si>
-  <si>
     <t>insertion</t>
   </si>
   <si>
@@ -120,18 +117,9 @@
     <t>delete</t>
   </si>
   <si>
-    <t>table data</t>
-  </si>
-  <si>
-    <t>consommation</t>
-  </si>
-  <si>
     <t>metier</t>
   </si>
   <si>
-    <t>diagramme</t>
-  </si>
-  <si>
     <t xml:space="preserve">details </t>
   </si>
   <si>
@@ -141,16 +129,25 @@
     <t>production</t>
   </si>
   <si>
-    <t>lien</t>
-  </si>
-  <si>
-    <t>production et consommation</t>
-  </si>
-  <si>
     <t>cosommation</t>
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Joueur</t>
+  </si>
+  <si>
+    <t>Nationalite</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Coefficent</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -557,13 +554,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62249D-93D1-B44E-A69D-FF5207EE2BE8}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" customWidth="1"/>
     <col min="2" max="2" width="23.69921875" customWidth="1"/>
     <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.796875" customWidth="1"/>
@@ -622,10 +619,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="3">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -709,13 +706,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>20</v>
@@ -733,10 +730,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -757,10 +754,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -769,22 +766,22 @@
         <v>15</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
@@ -805,13 +802,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3">
         <v>20</v>
@@ -829,37 +826,37 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3">
         <v>15</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="3">
         <v>15</v>
@@ -877,13 +874,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3">
         <v>15</v>
@@ -901,31 +898,31 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>21</v>
@@ -949,13 +946,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3">
         <v>15</v>
@@ -973,10 +970,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
@@ -1000,7 +997,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
@@ -1021,10 +1018,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>15</v>
@@ -1045,10 +1042,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>15</v>
@@ -1069,14 +1066,14 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D24" s="3">
         <v>15</v>
       </c>
@@ -1087,16 +1084,16 @@
         <v>15</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" ref="G24:G35" si="3">(E24/(E24+F24))</f>
+        <f t="shared" ref="G24:G26" si="3">(E24/(E24+F24))</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>15</v>
@@ -1117,13 +1114,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3">
         <v>20</v>
@@ -1235,19 +1232,19 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3">
         <f>SUM(D5:D36)</f>
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="E37" s="3">
         <f>SUM(E5:E36)</f>
-        <v>185</v>
+        <v>380</v>
       </c>
       <c r="F37" s="3">
         <f>SUM(F5:F36)</f>
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="G37" s="6">
         <f>(E37/(E37+F37))</f>
-        <v>0.44578313253012047</v>
+        <v>0.67256637168141598</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
